--- a/ORG_HOSPITAL.xlsx
+++ b/ORG_HOSPITAL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E7BEA-2D49-4568-BD16-99E7E4EA2AC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3504C3-73D5-42C4-A853-0B70DFACA698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ORG_HOS_PK</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>รพ.กองบิน</t>
+  </si>
+  <si>
+    <t>ORG_HOS_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_HOS_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_HOS_STATUS</t>
   </si>
 </sst>
 </file>
@@ -412,18 +421,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="31.90625" customWidth="1"/>
+    <col min="1" max="11" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +442,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43001</v>
       </c>
@@ -445,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43002</v>
       </c>
@@ -456,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43003</v>
       </c>
@@ -467,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43004</v>
       </c>
@@ -478,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43005</v>
       </c>
@@ -489,7 +507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43006</v>
       </c>
@@ -500,7 +518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43007</v>
       </c>
@@ -511,7 +529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43008</v>
       </c>
@@ -522,7 +540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43009</v>
       </c>
@@ -533,7 +551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43010</v>
       </c>
@@ -544,7 +562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43011</v>
       </c>
